--- a/app1_addressbook/addressbook.xlsx
+++ b/app1_addressbook/addressbook.xlsx
@@ -10,12 +10,15 @@
     <sheet name="addressbook" sheetId="1" r:id="rId1"/>
     <sheet name="type" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">addressbook!$A$1:$K$14</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>address</t>
   </si>
@@ -60,10 +63,6 @@
   </si>
   <si>
     <t>Home Depot</t>
-  </si>
-  <si>
-    <t>Washingtonian Center
-9811 Washingtonian Blvd</t>
   </si>
   <si>
     <t>Sport&amp;Health Club: Rio</t>
@@ -158,6 +157,81 @@
   </si>
   <si>
     <t>zipcar rental 39.119412, -77.165402</t>
+  </si>
+  <si>
+    <t>16520 S Westland Dr</t>
+  </si>
+  <si>
+    <t>MVA</t>
+  </si>
+  <si>
+    <t>MD DMV near Gaithersburg, full service</t>
+  </si>
+  <si>
+    <t>MD DMV near Gaithersburg, part of service</t>
+  </si>
+  <si>
+    <t>16515 S Frederick Ave</t>
+  </si>
+  <si>
+    <t>New Fortune</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>Cantonese restaurant, 港式早茶</t>
+  </si>
+  <si>
+    <t>gov</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>15 Metropolitan Grove Rd</t>
+  </si>
+  <si>
+    <t>576 N Frederick Ave</t>
+  </si>
+  <si>
+    <t>Yu Zhou café</t>
+  </si>
+  <si>
+    <t>785 Rockville Pike suite G</t>
+  </si>
+  <si>
+    <t>Superbowl Noodle House</t>
+  </si>
+  <si>
+    <t>Very classic chinese restaurant, 渝州小馆</t>
+  </si>
+  <si>
+    <t>chinese restaurant, 海碗公</t>
+  </si>
+  <si>
+    <t>838 Rockville Pike</t>
+  </si>
+  <si>
+    <t>East Pearl Restaurant</t>
+  </si>
+  <si>
+    <t>chinese see food restaurant, 海珍楼</t>
+  </si>
+  <si>
+    <t>Washingtonian Center 9811 Washingtonian Blvd</t>
   </si>
 </sst>
 </file>
@@ -193,9 +267,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,265 +593,510 @@
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>20877</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20878</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20878</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20878</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20879</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20879</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20877</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20877</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20877</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>20878</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20855</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20877</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20877</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>20878</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20878</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20879</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20879</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>20877</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20877</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20877</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20878</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20855</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20852</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20852</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
